--- a/XLSX/error_stepcount_high.xlsx
+++ b/XLSX/error_stepcount_high.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\RungeKutta\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F975E91-7A45-465C-ABD5-67ABCB2C078C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138AED6C-B251-4386-B8DF-9592CA707CDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3202,7 +3202,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3215,12 +3215,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="nl-NL" sz="2900" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Error as a Function of Step Count for high Step Counts</a:t>
             </a:r>
-            <a:endParaRPr lang="nl-NL">
+            <a:endParaRPr lang="nl-NL" sz="2900" baseline="0">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -3239,7 +3239,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3258,8 +3258,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3276,7 +3276,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3634,7 +3634,166 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$AA$3:$AA$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Blad1!$AB$3:$AB$52</c:f>
               <c:numCache>
@@ -3792,7 +3951,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3815,7 +3974,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4173,7 +4332,166 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$AF$3:$AF$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Blad1!$AG$3:$AG$52</c:f>
               <c:numCache>
@@ -4331,8 +4649,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-445C-48D7-8D05-C7C26D010388}"/>
@@ -4354,7 +4672,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4731,7 +5049,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Blad1!$A$3:$A$102</c:f>
               <c:numCache>
@@ -4889,8 +5207,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Blad1!$B$3:$B$52</c:f>
               <c:numCache>
@@ -5048,7 +5366,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5064,12 +5382,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="884248000"/>
         <c:axId val="884250080"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="884248000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -5083,7 +5399,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5096,14 +5412,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
-                  <a:t>Step</a:t>
+                  <a:rPr lang="nl-NL" sz="1800" baseline="0"/>
+                  <a:t>Step Count</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" baseline="0"/>
-                  <a:t> Count</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5120,7 +5431,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5158,7 +5469,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5175,11 +5486,8 @@
         </c:txPr>
         <c:crossAx val="884250080"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="884250080"/>
         <c:scaling>
@@ -5209,7 +5517,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5222,7 +5530,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1800" baseline="0"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
@@ -5249,7 +5557,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5281,7 +5589,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5298,7 +5606,7 @@
         </c:txPr>
         <c:crossAx val="884248000"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5323,7 +5631,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8311,7 +8619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
@@ -8413,7 +8721,7 @@
         <v>6.4230750665339504E-8</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D67" si="0">2*C4</f>
+        <f t="shared" ref="D4:D52" si="0">2*C4</f>
         <v>1.2846150133067901E-7</v>
       </c>
       <c r="AA4" s="4">
@@ -8426,7 +8734,7 @@
         <v>5.3147952771363296E-7</v>
       </c>
       <c r="AD4" s="1">
-        <f t="shared" ref="AD4:AD67" si="1">2*AC4</f>
+        <f t="shared" ref="AD4:AD52" si="1">2*AC4</f>
         <v>1.0629590554272659E-6</v>
       </c>
       <c r="AE4" s="1"/>
@@ -8440,7 +8748,7 @@
         <v>1.2035360989444999E-15</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI67" si="2">2*AH4</f>
+        <f t="shared" ref="AI4:AI52" si="2">2*AH4</f>
         <v>2.4070721978889998E-15</v>
       </c>
     </row>
